--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>010591</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>100061</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>007455</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>010583</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>011117</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>89.17</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.08</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>006923</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>89.61</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.04</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>006924</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>89.61</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.04</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏线上经济主题精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010020</t>
+          <t>010557</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏线上经济主题精选混合</t>
+          <t>汇添富数字生活主题六个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>117.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8661</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010289</t>
+          <t>010020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城产业趋势混合</t>
+          <t>华夏线上经济主题精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>35.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8524</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>010289</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>景顺长城产业趋势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0605</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006796</t>
+          <t>501088</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国消费升级混合</t>
+          <t>嘉实瑞虹三年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>39.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010557</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富数字生活主题六个月持有期混合</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>34.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>85.32</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501088</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实瑞虹三年定期开放混合</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>007895</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>嘉实价值成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>84.44</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002230</t>
+          <t>006796</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+          <t>富国消费升级混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>69.99</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007895</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实价值成长混合</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>008861</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>002230</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>010093</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8765</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7642</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2702,4 +2703,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3747,4 +3748,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3756,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,17 +3768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3787,14 +3808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.58</v>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3803,14 +3846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.47</v>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3819,14 +3884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.31</v>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3835,13 +3922,1025 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4839,7 +4840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4850,17 +4851,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4870,14 +4891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.42</v>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4886,14 +4929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.58</v>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4902,14 +4967,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.47</v>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6448</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4918,14 +5005,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.31</v>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4934,13 +5043,889 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7136</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.97</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏线上经济主题精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>59.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6654</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.42</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1415</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.58</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1415</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.47</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007455</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5458</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.31</v>
       </c>
     </row>
     <row r="7">
@@ -697,150 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010583</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5458</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1979</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+      <c r="D7" t="n">
+        <v>6.99</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -905,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>010557</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>汇添富数字生活主题六个月持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>140.59</t>
+          <t>53.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.5919</t>
+          <t>2.2111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -943,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>011399</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>汇添富数字未来混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>103.89</t>
+          <t>49.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.6101</t>
+          <t>2.0746</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -981,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010557</t>
+          <t>011665</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富数字生活主题六个月持有期混合</t>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>117.91</t>
+          <t>73.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>63.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.9522</t>
+          <t>1.6448</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1019,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>009391</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>汇添富优质成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>39.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.7569</t>
+          <t>1.4154</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1057,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>005354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>富国沪港深行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>55.54</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.8661</t>
+          <t>0.9916</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1095,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>55.54</t>
+          <t>37.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.8661</t>
+          <t>0.8897</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1133,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010020</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏线上经济主题精选混合</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.76</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>85.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.8524</t>
+          <t>0.3547</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1171,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010289</t>
+          <t>011400</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城产业趋势混合</t>
+          <t>汇添富数字未来混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>75.75</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.0605</t>
+          <t>0.2529</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1209,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>009392</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>汇添富优质成长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35.02</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9455</t>
+          <t>0.2041</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1247,32 +981,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501088</t>
+          <t>513580</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实瑞虹三年定期开放混合</t>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>39.10</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.9306</t>
+          <t>0.1925</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1285,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>001703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>银华沪港深增长股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.89</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8060</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1323,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>29.59</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>85.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6865</t>
+          <t>0.1287</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1361,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.59</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6865</t>
+          <t>0.1158</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1399,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>011666</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>63.76</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4271</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1437,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007895</t>
+          <t>161229</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实价值成长混合</t>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3616</t>
+          <t>0.0667</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1475,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>012589</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2596</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1513,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>012060</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>78.34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.2596</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1551,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>012061</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>78.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.2399</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1589,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>011114</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>富国沪港深行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2399</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1627,32 +1361,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2040</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1665,32 +1399,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>010777</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>浙商智选家居股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1882</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1703,32 +1437,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006796</t>
+          <t>012062</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国消费升级混合</t>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>78.34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1741,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010778</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>浙商智选家居股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1050</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1779,302 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>004321</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>64.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1008</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.42</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>69.99</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>81.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.78</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.78</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2109,7 +1577,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2139,32 +1607,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>009391</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>汇添富优质成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.48</t>
+          <t>115.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.7847</t>
+          <t>3.6301</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2177,36 +1645,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>010557</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>汇添富数字生活主题六个月持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106.54</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.3255</t>
+          <t>2.8874</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2225,26 +1693,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.43</t>
+          <t>67.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.8765</t>
+          <t>2.7134</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2253,36 +1721,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010557</t>
+          <t>513180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富数字生活主题六个月持有期混合</t>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>105.54</t>
+          <t>57.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.8733</t>
+          <t>2.5048</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2291,36 +1759,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.40</t>
+          <t>42.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>56.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7642</t>
+          <t>0.9340</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2329,36 +1797,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>513010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>59.40</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.7642</t>
+          <t>0.5044</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2367,36 +1835,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011400</t>
+          <t>011153</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富数字未来混合C</t>
+          <t>华宝新兴消费混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>74.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4699</t>
+          <t>0.3588</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2405,36 +1873,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>011400</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>汇添富数字未来混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3305</t>
+          <t>0.3297</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2443,36 +1911,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>009392</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>汇添富优质成长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1536</t>
+          <t>0.2520</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2481,36 +1949,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>513580</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0679</t>
+          <t>0.1938</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2519,36 +1987,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>159740</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.31</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.1776</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2557,36 +2025,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.1700</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2595,32 +2063,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>83.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.1559</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2633,36 +2101,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>159742</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>96.64</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.1376</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2671,36 +2139,492 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>159741</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>99.85</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.1286</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3758,7 +3682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3779,7 +3703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3809,32 +3733,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009391</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富优质成长混合A</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>115.24</t>
+          <t>142.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6301</t>
+          <t>5.7847</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3847,36 +3771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010557</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富数字生活主题六个月持有期混合</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>106.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8874</t>
+          <t>4.3255</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3895,26 +3819,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67.33</t>
+          <t>96.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7134</t>
+          <t>3.8765</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3923,36 +3847,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>010557</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>汇添富数字生活主题六个月持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57.45</t>
+          <t>105.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.5048</t>
+          <t>3.8733</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3961,36 +3885,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>42.07</t>
+          <t>59.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.88</t>
+          <t>82.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9340</t>
+          <t>1.7642</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3999,36 +3923,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>513010</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>59.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>82.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5044</t>
+          <t>1.7642</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -4037,36 +3961,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011153</t>
+          <t>011400</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝新兴消费混合A</t>
+          <t>汇添富数字未来混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.02</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3588</t>
+          <t>0.4699</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4075,36 +3999,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011400</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富数字未来混合C</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3297</t>
+          <t>0.3305</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -4113,36 +4037,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009392</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富优质成长混合C</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2520</t>
+          <t>0.1536</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -4151,36 +4075,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513580</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1938</t>
+          <t>0.0679</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4189,36 +4113,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159740</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>82.31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1776</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4227,36 +4151,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1700</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -4265,32 +4189,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.32</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1559</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4303,36 +4227,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159742</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -4341,492 +4265,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159741</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99.85</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1286</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161229</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012589</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>56.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013127</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>013128</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010777</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>83.24</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011154</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>74.02</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>83.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010778</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.50</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4861,7 +4329,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4891,36 +4359,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010557</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富数字生活主题六个月持有期混合</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.28</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2111</t>
+          <t>7.5919</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4929,36 +4397,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011399</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富数字未来混合A</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.87</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0746</t>
+          <t>5.6101</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4967,36 +4435,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011665</t>
+          <t>010557</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+          <t>汇添富数字生活主题六个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>73.43</t>
+          <t>117.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6448</t>
+          <t>4.9522</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5005,36 +4473,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009391</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富优质成长混合A</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.87</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4154</t>
+          <t>3.7569</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5043,36 +4511,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005354</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>78.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9916</t>
+          <t>1.8661</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5081,36 +4549,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37.54</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>78.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8897</t>
+          <t>1.8661</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -5119,36 +4587,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>010020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>华夏线上经济主题精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>35.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.37</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3547</t>
+          <t>1.8524</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -5157,36 +4625,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011400</t>
+          <t>010289</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富数字未来混合C</t>
+          <t>景顺长城产业趋势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>35.57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2529</t>
+          <t>1.0605</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -5195,36 +4663,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009392</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富优质成长混合C</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2041</t>
+          <t>0.9455</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -5233,32 +4701,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513580</t>
+          <t>501088</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>嘉实瑞虹三年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>39.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1925</t>
+          <t>0.9306</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -5271,36 +4739,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001703</t>
+          <t>009007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>兴全沪港深两年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>34.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>89.76</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.8060</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -5309,36 +4777,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.37</t>
+          <t>85.32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1287</t>
+          <t>0.6865</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -5347,36 +4815,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>85.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1158</t>
+          <t>0.6865</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -5385,36 +4853,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011666</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.4271</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -5423,36 +4891,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161229</t>
+          <t>007895</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+          <t>嘉实价值成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0667</t>
+          <t>0.3616</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -5461,36 +4929,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012589</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>84.44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.2596</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -5499,36 +4967,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012060</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.34</t>
+          <t>84.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0459</t>
+          <t>0.2596</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -5537,36 +5005,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012061</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.34</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0459</t>
+          <t>0.2399</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -5575,36 +5043,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011114</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.2399</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -5613,32 +5081,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.2040</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -5651,32 +5119,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010777</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浙商智选家居股票A</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.1882</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -5689,32 +5157,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>012062</t>
+          <t>006796</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+          <t>富国消费升级混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.34</t>
+          <t>87.84</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -5727,36 +5195,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010778</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商智选家居股票C</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -5765,36 +5233,302 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004321</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>64.32</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.1008</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5808,7 +5542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,17 +5553,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5839,14 +5593,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.97</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5855,14 +5631,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.42</v>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5871,14 +5669,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.58</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5887,14 +5707,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.47</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5903,14 +5745,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.31</v>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5919,14 +5783,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.99</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>10.97</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>15.42</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>13.58</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>22.47</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>35.31</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.99</v>
       </c>
     </row>
@@ -583,6 +600,1538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1550,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2632,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3676,7 +5225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4302,7 +5851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5536,7 +7085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06690-海尔智家.xlsx
+++ b/数据整理/stocks/港股/06690-海尔智家.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>15.22</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>10.97</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>13.58</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>22.47</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>35.31</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.99</v>
       </c>
     </row>
@@ -600,6 +617,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015884</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2131,7 +2962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3099,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4181,7 +5012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5225,7 +6056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5851,7 +6682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7085,7 +7916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
